--- a/AAII_Financials/Quarterly/KVUE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KVUE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>KVUE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,164 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="F7" s="2">
         <v>44927</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44836</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44563</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44472</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4011000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3852000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3767000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11183000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3733000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>11321000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1786000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1727000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1693000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4917000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1736000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4851000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2125000</v>
+      </c>
+      <c r="F10" s="3">
         <v>2074000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6266000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1997000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>6470000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,37 +834,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>89000</v>
+      </c>
+      <c r="F12" s="3">
         <v>103000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>272000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>102000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>253000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,37 +900,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>59000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>102000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +970,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +986,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3307000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3227000</v>
+      </c>
+      <c r="F17" s="3">
         <v>3236000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9035000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3211000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8898000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>625000</v>
+      </c>
+      <c r="F18" s="3">
         <v>531000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2148000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>522000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2423000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,153 +1071,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-19000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-23000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-15000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>840000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>761000</v>
+      </c>
+      <c r="F21" s="3">
         <v>678000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2603000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>699000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2957000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>53000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>609000</v>
+      </c>
+      <c r="F23" s="3">
         <v>512000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2125000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>517000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2408000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>279000</v>
+      </c>
+      <c r="F24" s="3">
         <v>142000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>408000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>106000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>788000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1277,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>330000</v>
+      </c>
+      <c r="F26" s="3">
         <v>370000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1717000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>411000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1620000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>330000</v>
+      </c>
+      <c r="F27" s="3">
         <v>370000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1717000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>411000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1620000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1382,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1417,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1452,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,66 +1487,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F32" s="3">
         <v>19000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>23000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>15000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>330000</v>
+      </c>
+      <c r="F33" s="3">
         <v>370000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1717000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>411000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1620000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1592,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>330000</v>
+      </c>
+      <c r="F35" s="3">
         <v>370000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1717000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>411000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1620000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="F38" s="2">
         <v>44927</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44836</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44563</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44472</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1686,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,8 +1701,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1540,14 +1712,14 @@
         <v>1231000</v>
       </c>
       <c r="E41" s="3">
+        <v>1691000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="G41" s="3">
         <v>797000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1732,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,23 +1767,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2096000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2109000</v>
+      </c>
+      <c r="F43" s="3">
         <v>2122000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2141000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,23 +1802,29 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2026000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="F44" s="3">
         <v>2226000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2133000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,23 +1837,29 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>866000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>417000</v>
+      </c>
+      <c r="F45" s="3">
         <v>298000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>392000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,23 +1872,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6219000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6439000</v>
+      </c>
+      <c r="F46" s="3">
         <v>5877000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5463000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1907,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,23 +1942,29 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1832000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1836000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1820000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1700000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,23 +1977,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18759000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>19071000</v>
+      </c>
+      <c r="F49" s="3">
         <v>19038000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>18315000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +2012,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2047,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,23 +2082,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8249000</v>
+      </c>
+      <c r="F52" s="3">
         <v>581000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>544000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +2117,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2152,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27542000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>35595000</v>
+      </c>
+      <c r="F54" s="3">
         <v>27316000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>26022000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2187,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2206,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,23 +2221,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2354000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1781000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1829000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1745000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,52 +2252,64 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>752000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2193000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2429000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2097000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2122000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,23 +2322,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5299000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4210000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3926000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3867000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,16 +2357,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>7684000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>7676000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2108,23 +2392,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3519000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3427000</v>
+      </c>
+      <c r="F62" s="3">
         <v>3369000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3228000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2427,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2462,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2497,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,23 +2532,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16502000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15313000</v>
+      </c>
+      <c r="F66" s="3">
         <v>7295000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7095000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2567,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2586,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2617,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2652,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2687,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,23 +2722,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>25521000</v>
+      </c>
+      <c r="F72" s="3">
         <v>25474000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>25153000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2757,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2792,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2827,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,23 +2862,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11040000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>20282000</v>
+      </c>
+      <c r="F76" s="3">
         <v>20021000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>18927000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2897,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2932,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="F80" s="2">
         <v>44927</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44836</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44563</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44472</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>330000</v>
+      </c>
+      <c r="F81" s="3">
         <v>370000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1717000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>411000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1620000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3026,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>152000</v>
+      </c>
+      <c r="F83" s="3">
         <v>166000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>478000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>182000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>549000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3092,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3127,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3162,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3197,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3232,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>742000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>802000</v>
+      </c>
+      <c r="F89" s="3">
         <v>644000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1881000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1009000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-675000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,26 +3286,28 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-159000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-216000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-123000</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -2877,8 +3317,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3352,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3387,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-167000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-223000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-33000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-138000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3441,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3472,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3507,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3542,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,91 +3577,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8806000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7388000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-63000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1520000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-900000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>900000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F101" s="3">
         <v>20000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-81000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-15000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-26000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8155000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8155000</v>
+      </c>
+      <c r="F102" s="3">
         <v>434000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>57000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>61000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>61000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KVUE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KVUE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>KVUE</t>
   </si>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4011000</v>
+        <v>7863000</v>
       </c>
       <c r="E8" s="3">
         <v>3852000</v>
@@ -731,7 +731,7 @@
         <v>3767000</v>
       </c>
       <c r="G8" s="3">
-        <v>11183000</v>
+        <v>3789000</v>
       </c>
       <c r="H8" s="3">
         <v>3733000</v>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1786000</v>
+        <v>3525000</v>
       </c>
       <c r="E9" s="3">
         <v>1727000</v>
@@ -766,7 +766,7 @@
         <v>1693000</v>
       </c>
       <c r="G9" s="3">
-        <v>4917000</v>
+        <v>1675000</v>
       </c>
       <c r="H9" s="3">
         <v>1736000</v>
@@ -792,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2225000</v>
+        <v>4338000</v>
       </c>
       <c r="E10" s="3">
         <v>2125000</v>
@@ -801,7 +801,7 @@
         <v>2074000</v>
       </c>
       <c r="G10" s="3">
-        <v>6266000</v>
+        <v>2114000</v>
       </c>
       <c r="H10" s="3">
         <v>1997000</v>
@@ -912,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2000</v>
+        <v>198000</v>
       </c>
       <c r="E14" s="3">
         <v>15000</v>
@@ -921,7 +921,7 @@
         <v>11000</v>
       </c>
       <c r="G14" s="3">
-        <v>59000</v>
+        <v>83000</v>
       </c>
       <c r="H14" s="3">
         <v>4000</v>
@@ -994,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3307000</v>
+        <v>6521000</v>
       </c>
       <c r="E17" s="3">
         <v>3227000</v>
@@ -1003,7 +1003,7 @@
         <v>3236000</v>
       </c>
       <c r="G17" s="3">
-        <v>9035000</v>
+        <v>3026000</v>
       </c>
       <c r="H17" s="3">
         <v>3211000</v>
@@ -1029,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>704000</v>
+        <v>1342000</v>
       </c>
       <c r="E18" s="3">
         <v>625000</v>
@@ -1038,7 +1038,7 @@
         <v>531000</v>
       </c>
       <c r="G18" s="3">
-        <v>2148000</v>
+        <v>763000</v>
       </c>
       <c r="H18" s="3">
         <v>522000</v>
@@ -1079,7 +1079,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12000</v>
+        <v>-40000</v>
       </c>
       <c r="E20" s="3">
         <v>-16000</v>
@@ -1088,7 +1088,7 @@
         <v>-19000</v>
       </c>
       <c r="G20" s="3">
-        <v>-23000</v>
+        <v>-25000</v>
       </c>
       <c r="H20" s="3">
         <v>-5000</v>
@@ -1114,7 +1114,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>840000</v>
+        <v>1602000</v>
       </c>
       <c r="E21" s="3">
         <v>761000</v>
@@ -1122,11 +1122,11 @@
       <c r="F21" s="3">
         <v>678000</v>
       </c>
-      <c r="G21" s="3">
-        <v>2603000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>699000</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3">
         <v>2957000</v>
@@ -1149,7 +1149,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>53000</v>
+        <v>54000</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1157,8 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1184,7 +1184,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>639000</v>
+        <v>1248000</v>
       </c>
       <c r="E23" s="3">
         <v>609000</v>
@@ -1193,7 +1193,7 @@
         <v>512000</v>
       </c>
       <c r="G23" s="3">
-        <v>2125000</v>
+        <v>738000</v>
       </c>
       <c r="H23" s="3">
         <v>517000</v>
@@ -1219,7 +1219,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>209000</v>
+        <v>349000</v>
       </c>
       <c r="E24" s="3">
         <v>279000</v>
@@ -1228,7 +1228,7 @@
         <v>142000</v>
       </c>
       <c r="G24" s="3">
-        <v>408000</v>
+        <v>152000</v>
       </c>
       <c r="H24" s="3">
         <v>106000</v>
@@ -1289,7 +1289,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>430000</v>
+        <v>899000</v>
       </c>
       <c r="E26" s="3">
         <v>330000</v>
@@ -1298,7 +1298,7 @@
         <v>370000</v>
       </c>
       <c r="G26" s="3">
-        <v>1717000</v>
+        <v>586000</v>
       </c>
       <c r="H26" s="3">
         <v>411000</v>
@@ -1324,7 +1324,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>430000</v>
+        <v>899000</v>
       </c>
       <c r="E27" s="3">
         <v>330000</v>
@@ -1333,7 +1333,7 @@
         <v>370000</v>
       </c>
       <c r="G27" s="3">
-        <v>1717000</v>
+        <v>586000</v>
       </c>
       <c r="H27" s="3">
         <v>411000</v>
@@ -1499,7 +1499,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="E32" s="3">
         <v>16000</v>
@@ -1508,7 +1508,7 @@
         <v>19000</v>
       </c>
       <c r="G32" s="3">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="H32" s="3">
         <v>5000</v>
@@ -1534,7 +1534,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>430000</v>
+        <v>899000</v>
       </c>
       <c r="E33" s="3">
         <v>330000</v>
@@ -1543,7 +1543,7 @@
         <v>370000</v>
       </c>
       <c r="G33" s="3">
-        <v>1717000</v>
+        <v>586000</v>
       </c>
       <c r="H33" s="3">
         <v>411000</v>
@@ -1604,7 +1604,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>430000</v>
+        <v>899000</v>
       </c>
       <c r="E35" s="3">
         <v>330000</v>
@@ -1613,7 +1613,7 @@
         <v>370000</v>
       </c>
       <c r="G35" s="3">
-        <v>1717000</v>
+        <v>586000</v>
       </c>
       <c r="H35" s="3">
         <v>411000</v>
@@ -1717,8 +1717,8 @@
       <c r="F41" s="3">
         <v>1231000</v>
       </c>
-      <c r="G41" s="3">
-        <v>797000</v>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1787,8 +1787,8 @@
       <c r="F43" s="3">
         <v>2122000</v>
       </c>
-      <c r="G43" s="3">
-        <v>2141000</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1822,8 +1822,8 @@
       <c r="F44" s="3">
         <v>2226000</v>
       </c>
-      <c r="G44" s="3">
-        <v>2133000</v>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1857,8 +1857,8 @@
       <c r="F45" s="3">
         <v>298000</v>
       </c>
-      <c r="G45" s="3">
-        <v>392000</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1892,8 +1892,8 @@
       <c r="F46" s="3">
         <v>5877000</v>
       </c>
-      <c r="G46" s="3">
-        <v>5463000</v>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1962,8 +1962,8 @@
       <c r="F48" s="3">
         <v>1820000</v>
       </c>
-      <c r="G48" s="3">
-        <v>1700000</v>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1997,8 +1997,8 @@
       <c r="F49" s="3">
         <v>19038000</v>
       </c>
-      <c r="G49" s="3">
-        <v>18315000</v>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2102,8 +2102,8 @@
       <c r="F52" s="3">
         <v>581000</v>
       </c>
-      <c r="G52" s="3">
-        <v>544000</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2172,8 +2172,8 @@
       <c r="F54" s="3">
         <v>27316000</v>
       </c>
-      <c r="G54" s="3">
-        <v>26022000</v>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2237,8 +2237,8 @@
       <c r="F57" s="3">
         <v>1829000</v>
       </c>
-      <c r="G57" s="3">
-        <v>1745000</v>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2307,8 +2307,8 @@
       <c r="F59" s="3">
         <v>2097000</v>
       </c>
-      <c r="G59" s="3">
-        <v>2122000</v>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2342,8 +2342,8 @@
       <c r="F60" s="3">
         <v>3926000</v>
       </c>
-      <c r="G60" s="3">
-        <v>3867000</v>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2412,8 @@
       <c r="F62" s="3">
         <v>3369000</v>
       </c>
-      <c r="G62" s="3">
-        <v>3228000</v>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2552,8 +2552,8 @@
       <c r="F66" s="3">
         <v>7295000</v>
       </c>
-      <c r="G66" s="3">
-        <v>7095000</v>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2742,8 +2742,8 @@
       <c r="F72" s="3">
         <v>25474000</v>
       </c>
-      <c r="G72" s="3">
-        <v>25153000</v>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2882,8 +2882,8 @@
       <c r="F76" s="3">
         <v>20021000</v>
       </c>
-      <c r="G76" s="3">
-        <v>18927000</v>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2984,7 +2984,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>430000</v>
+        <v>899000</v>
       </c>
       <c r="E81" s="3">
         <v>330000</v>
@@ -2993,7 +2993,7 @@
         <v>370000</v>
       </c>
       <c r="G81" s="3">
-        <v>1717000</v>
+        <v>586000</v>
       </c>
       <c r="H81" s="3">
         <v>411000</v>
@@ -3034,7 +3034,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>148000</v>
+        <v>300000</v>
       </c>
       <c r="E83" s="3">
         <v>152000</v>
@@ -3042,14 +3042,14 @@
       <c r="F83" s="3">
         <v>166000</v>
       </c>
-      <c r="G83" s="3">
-        <v>478000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>182000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>549000</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3244,7 +3244,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>742000</v>
+        <v>1544000</v>
       </c>
       <c r="E89" s="3">
         <v>802000</v>
@@ -3252,14 +3252,14 @@
       <c r="F89" s="3">
         <v>644000</v>
       </c>
-      <c r="G89" s="3">
-        <v>1881000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1009000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-675000</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3306,7 +3306,7 @@
         <v>-216000</v>
       </c>
       <c r="H91" s="3">
-        <v>-123000</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-77000</v>
+        <v>-118000</v>
       </c>
       <c r="E94" s="3">
         <v>-41000</v>
@@ -3407,14 +3407,14 @@
       <c r="F94" s="3">
         <v>-167000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-223000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-138000</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3589,7 +3589,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8806000</v>
+        <v>-1418000</v>
       </c>
       <c r="E100" s="3">
         <v>7388000</v>
@@ -3597,14 +3597,14 @@
       <c r="F100" s="3">
         <v>-63000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-1520000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-900000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>900000</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3624,7 +3624,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14000</v>
+        <v>-8000</v>
       </c>
       <c r="E101" s="3">
         <v>6000</v>
@@ -3632,14 +3632,14 @@
       <c r="F101" s="3">
         <v>20000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-81000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-26000</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3659,7 +3659,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8155000</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>8155000</v>
@@ -3667,14 +3667,14 @@
       <c r="F102" s="3">
         <v>434000</v>
       </c>
-      <c r="G102" s="3">
-        <v>57000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>61000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>61000</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
